--- a/biology/Biochimie/Histamine_N-méthyltransférase/Histamine_N-méthyltransférase.xlsx
+++ b/biology/Biochimie/Histamine_N-méthyltransférase/Histamine_N-méthyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histamine_N-m%C3%A9thyltransf%C3%A9rase</t>
+          <t>Histamine_N-méthyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histamine N-méthyltransférase (HMT, HNMT) est une méthyltransférase qui catalyse la réaction :
 S-adénosyl-L-méthionine + histamine  
         ⇌
     {\displaystyle \rightleftharpoons }
   S-adénosyl-L-homocystéine + Nτ-méthylhistamine.
-Cette enzyme est codée chez l'homme par le gène HNMT sur le chromosome 2. Avec la diamine oxydase (EC 1.4.3.22), c'est l'une des deux enzymes métabolisant l'histamine. On la trouve dans pratiquement tous les tissus, mais est absente du sérum[2].
+Cette enzyme est codée chez l'homme par le gène HNMT sur le chromosome 2. Avec la diamine oxydase (EC 1.4.3.22), c'est l'une des deux enzymes métabolisant l'histamine. On la trouve dans pratiquement tous les tissus, mais est absente du sérum.
 </t>
         </is>
       </c>
